--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -425,7 +425,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A10"/>
+  <x:dimension ref="A1:A12"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -429,10 +429,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="2" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="39.550000000000004" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="39.550625000000004" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
@@ -521,7 +520,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -106,7 +106,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -116,8 +116,17 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -128,6 +137,18 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -435,65 +456,65 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="A4" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="A5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="1" t="s">
+      <x:c r="A7" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="1" t="s">
+      <x:c r="A8" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="A9" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A1" r:id="rId6"/>
-    <x:hyperlink ref="A2" r:id="rId7" tooltip="Click to go to Yahoo!"/>
+    <x:hyperlink ref="A1" r:id="rId1"/>
+    <x:hyperlink ref="A2" r:id="rId6" tooltip="Click to go to Yahoo!"/>
     <x:hyperlink ref="A3" location="'Hyperlinks'!Test.xlsx" display="Link to a file - same folder"/>
-    <x:hyperlink ref="A4" r:id="rId8"/>
+    <x:hyperlink ref="A4" r:id="rId7"/>
     <x:hyperlink ref="A5" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
     <x:hyperlink ref="A6" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
     <x:hyperlink ref="A7" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A8" r:id="rId9"/>
+    <x:hyperlink ref="A8" r:id="rId8"/>
     <x:hyperlink ref="A10" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Link to a web page, no tooltip - Yahoo!</x:t>
   </x:si>
@@ -24,6 +24,9 @@
   </x:si>
   <x:si>
     <x:t>Link to a file - same folder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Link to a file - Absolute</x:t>
   </x:si>
   <x:si>
     <x:t>Link to a file - relative address</x:t>
@@ -446,7 +449,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A12"/>
+  <x:dimension ref="A1:A13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -496,13 +499,18 @@
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="4" t="s">
+      <x:c r="A9" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="5" t="s">
+      <x:c r="A10" s="4" t="s">
         <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="5" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,11 +519,12 @@
     <x:hyperlink ref="A2" r:id="rId6" tooltip="Click to go to Yahoo!"/>
     <x:hyperlink ref="A3" location="'Hyperlinks'!Test.xlsx" display="Link to a file - same folder"/>
     <x:hyperlink ref="A4" r:id="rId7"/>
-    <x:hyperlink ref="A5" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
-    <x:hyperlink ref="A6" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
-    <x:hyperlink ref="A7" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A8" r:id="rId8"/>
-    <x:hyperlink ref="A10" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
+    <x:hyperlink ref="A5" r:id="rId8"/>
+    <x:hyperlink ref="A6" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
+    <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
+    <x:hyperlink ref="A8" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
+    <x:hyperlink ref="A9" r:id="rId9"/>
+    <x:hyperlink ref="A11" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -109,7 +109,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -119,17 +119,8 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -140,18 +131,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -459,59 +438,65 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
-      <x:c r="A5" s="3" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
-      <x:c r="A7" s="3" t="s">
+      <x:c r="A7" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
-      <x:c r="A8" s="3" t="s">
+      <x:c r="A8" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
-      <x:c r="A9" s="3" t="s">
+      <x:c r="A9" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
-      <x:c r="A10" s="4" t="s">
+      <x:c r="A10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
-      <x:c r="A11" s="5" t="s">
+      <x:c r="A11" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -514,14 +514,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -540,14 +533,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="39.550625000000004" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="45.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="45.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="45.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -434,7 +434,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="45.10125" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="39.550625000000004" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -501,14 +501,14 @@
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="A1" r:id="rId1"/>
-    <x:hyperlink ref="A2" r:id="rId6" tooltip="Click to go to Yahoo!"/>
+    <x:hyperlink ref="A2" r:id="rId11" tooltip="Click to go to Yahoo!"/>
     <x:hyperlink ref="A3" location="'Hyperlinks'!Test.xlsx" display="Link to a file - same folder"/>
-    <x:hyperlink ref="A4" r:id="rId7"/>
-    <x:hyperlink ref="A5" r:id="rId8"/>
+    <x:hyperlink ref="A4" r:id="rId13"/>
+    <x:hyperlink ref="A5" r:id="rId14"/>
     <x:hyperlink ref="A6" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
     <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
     <x:hyperlink ref="A8" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A9" r:id="rId9"/>
+    <x:hyperlink ref="A9" r:id="rId15"/>
     <x:hyperlink ref="A11" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -500,15 +500,15 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A1" r:id="rId1"/>
-    <x:hyperlink ref="A2" r:id="rId11" tooltip="Click to go to Yahoo!"/>
+    <x:hyperlink ref="A1" r:id="rId11"/>
+    <x:hyperlink ref="A2" r:id="rId13" tooltip="Click to go to Yahoo!"/>
     <x:hyperlink ref="A3" location="'Hyperlinks'!Test.xlsx" display="Link to a file - same folder"/>
-    <x:hyperlink ref="A4" r:id="rId13"/>
-    <x:hyperlink ref="A5" r:id="rId14"/>
+    <x:hyperlink ref="A4" r:id="rId14"/>
+    <x:hyperlink ref="A5" r:id="rId15"/>
     <x:hyperlink ref="A6" location="'Hyperlinks'!B1" display="Link to an address in this worksheet"/>
     <x:hyperlink ref="A7" location="'Second Sheet'!A1" display="Link to an address in another worksheet"/>
     <x:hyperlink ref="A8" location="'Hyperlinks'!B1:C2" tooltip="SquareBox" display="Link to a range in this worksheet"/>
-    <x:hyperlink ref="A9" r:id="rId15"/>
+    <x:hyperlink ref="A9" r:id="rId16"/>
     <x:hyperlink ref="A11" location="'Hyperlinks'!B1:C2" display="Odd looking link"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -57,7 +57,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="4">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -78,6 +78,13 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -437,7 +437,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A13"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -533,7 +533,7 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -441,7 +441,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="39.550625000000004" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="37.750625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -117,26 +117,26 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Hyperlinks.xlsx
@@ -499,12 +499,8 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" s="0" t="s"/>
-    </x:row>
+    <x:row r="12" spans="1:1"/>
+    <x:row r="13" spans="1:1"/>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="A1" r:id="rId11"/>
